--- a/natmiOut/OldD2/LR-pairs_lrc2p/Inhbb-Acvr1.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Inhbb-Acvr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,25 +79,25 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>Neutro</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Inhbb</t>
   </si>
   <si>
     <t>Acvr1</t>
   </si>
   <si>
-    <t>FAPs</t>
-  </si>
-  <si>
     <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.57088153096832</v>
+        <v>2.8515055</v>
       </c>
       <c r="H2">
-        <v>2.57088153096832</v>
+        <v>5.703011</v>
       </c>
       <c r="I2">
-        <v>0.6493211847375215</v>
+        <v>0.387259194802113</v>
       </c>
       <c r="J2">
-        <v>0.6493211847375215</v>
+        <v>0.3342184077626661</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>8.28312771147252</v>
+        <v>8.2840475</v>
       </c>
       <c r="N2">
-        <v>8.28312771147252</v>
+        <v>16.568095</v>
       </c>
       <c r="O2">
-        <v>0.1651797650911165</v>
+        <v>0.162064909128062</v>
       </c>
       <c r="P2">
-        <v>0.1651797650911165</v>
+        <v>0.1267883207199013</v>
       </c>
       <c r="Q2">
-        <v>21.29494005207659</v>
+        <v>23.62200700851125</v>
       </c>
       <c r="R2">
-        <v>21.29494005207659</v>
+        <v>94.488028034045</v>
       </c>
       <c r="S2">
-        <v>0.1072547207636293</v>
+        <v>0.06276112621461089</v>
       </c>
       <c r="T2">
-        <v>0.1072547207636293</v>
+        <v>0.04237499067390766</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.57088153096832</v>
+        <v>2.8515055</v>
       </c>
       <c r="H3">
-        <v>2.57088153096832</v>
+        <v>5.703011</v>
       </c>
       <c r="I3">
-        <v>0.6493211847375215</v>
+        <v>0.387259194802113</v>
       </c>
       <c r="J3">
-        <v>0.6493211847375215</v>
+        <v>0.3342184077626661</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>10.0884079620058</v>
+        <v>10.55762366666667</v>
       </c>
       <c r="N3">
-        <v>10.0884079620058</v>
+        <v>31.672871</v>
       </c>
       <c r="O3">
-        <v>0.2011801478081069</v>
+        <v>0.2065440016062932</v>
       </c>
       <c r="P3">
-        <v>0.2011801478081069</v>
+        <v>0.2423785067907964</v>
       </c>
       <c r="Q3">
-        <v>25.93610170639446</v>
+        <v>30.10512195243017</v>
       </c>
       <c r="R3">
-        <v>25.93610170639446</v>
+        <v>180.630731714581</v>
       </c>
       <c r="S3">
-        <v>0.1306305319204296</v>
+        <v>0.07998606375325945</v>
       </c>
       <c r="T3">
-        <v>0.1306305319204296</v>
+        <v>0.08100735861551256</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.57088153096832</v>
+        <v>2.8515055</v>
       </c>
       <c r="H4">
-        <v>2.57088153096832</v>
+        <v>5.703011</v>
       </c>
       <c r="I4">
-        <v>0.6493211847375215</v>
+        <v>0.387259194802113</v>
       </c>
       <c r="J4">
-        <v>0.6493211847375215</v>
+        <v>0.3342184077626661</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.86060316207513</v>
+        <v>5.931556333333333</v>
       </c>
       <c r="N4">
-        <v>5.86060316207513</v>
+        <v>17.794669</v>
       </c>
       <c r="O4">
-        <v>0.1168704730053873</v>
+        <v>0.1160419635630586</v>
       </c>
       <c r="P4">
-        <v>0.1168704730053873</v>
+        <v>0.13617475034254</v>
       </c>
       <c r="Q4">
-        <v>15.06691642971349</v>
+        <v>16.91386550805983</v>
       </c>
       <c r="R4">
-        <v>15.06691642971349</v>
+        <v>101.483193048359</v>
       </c>
       <c r="S4">
-        <v>0.07588647399269262</v>
+        <v>0.04493831737268621</v>
       </c>
       <c r="T4">
-        <v>0.07588647399269262</v>
+        <v>0.04551210823696229</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.57088153096832</v>
+        <v>2.8515055</v>
       </c>
       <c r="H5">
-        <v>2.57088153096832</v>
+        <v>5.703011</v>
       </c>
       <c r="I5">
-        <v>0.6493211847375215</v>
+        <v>0.387259194802113</v>
       </c>
       <c r="J5">
-        <v>0.6493211847375215</v>
+        <v>0.3342184077626661</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.42173999120912</v>
+        <v>5.460941333333333</v>
       </c>
       <c r="N5">
-        <v>5.42173999120912</v>
+        <v>16.382824</v>
       </c>
       <c r="O5">
-        <v>0.1081187891009624</v>
+        <v>0.1068350900861377</v>
       </c>
       <c r="P5">
-        <v>0.1081187891009624</v>
+        <v>0.1253705235037399</v>
       </c>
       <c r="Q5">
-        <v>13.93865120911187</v>
+        <v>15.57190424717733</v>
       </c>
       <c r="R5">
-        <v>13.93865120911187</v>
+        <v>93.431425483064</v>
       </c>
       <c r="S5">
-        <v>0.07020382023142312</v>
+        <v>0.0413728709633689</v>
       </c>
       <c r="T5">
-        <v>0.07020382023142312</v>
+        <v>0.04190113674579187</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.57088153096832</v>
+        <v>2.8515055</v>
       </c>
       <c r="H6">
-        <v>2.57088153096832</v>
+        <v>5.703011</v>
       </c>
       <c r="I6">
-        <v>0.6493211847375215</v>
+        <v>0.387259194802113</v>
       </c>
       <c r="J6">
-        <v>0.6493211847375215</v>
+        <v>0.3342184077626661</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.14538998022879</v>
+        <v>6.493894666666667</v>
       </c>
       <c r="N6">
-        <v>6.14538998022879</v>
+        <v>19.481684</v>
       </c>
       <c r="O6">
-        <v>0.1225496103267296</v>
+        <v>0.1270432658722128</v>
       </c>
       <c r="P6">
-        <v>0.1225496103267296</v>
+        <v>0.1490847317785038</v>
       </c>
       <c r="Q6">
-        <v>15.79906960076797</v>
+        <v>18.51737635842067</v>
       </c>
       <c r="R6">
-        <v>15.79906960076797</v>
+        <v>111.104258150524</v>
       </c>
       <c r="S6">
-        <v>0.07957405816647366</v>
+        <v>0.04919867284670387</v>
       </c>
       <c r="T6">
-        <v>0.07957405816647366</v>
+        <v>0.04982686167673569</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.57088153096832</v>
+        <v>2.8515055</v>
       </c>
       <c r="H7">
-        <v>2.57088153096832</v>
+        <v>5.703011</v>
       </c>
       <c r="I7">
-        <v>0.6493211847375215</v>
+        <v>0.387259194802113</v>
       </c>
       <c r="J7">
-        <v>0.6493211847375215</v>
+        <v>0.3342184077626661</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>14.3468717139337</v>
+        <v>14.3875515</v>
       </c>
       <c r="N7">
-        <v>14.3468717139337</v>
+        <v>28.775103</v>
       </c>
       <c r="O7">
-        <v>0.2861012146676974</v>
+        <v>0.2814707697442357</v>
       </c>
       <c r="P7">
-        <v>0.2861012146676974</v>
+        <v>0.2202031668645185</v>
       </c>
       <c r="Q7">
-        <v>36.88410751652395</v>
+        <v>41.02618223378325</v>
       </c>
       <c r="R7">
-        <v>36.88410751652395</v>
+        <v>164.104728935133</v>
       </c>
       <c r="S7">
-        <v>0.1857715796628732</v>
+        <v>0.1090021436514837</v>
       </c>
       <c r="T7">
-        <v>0.1857715796628732</v>
+        <v>0.07359595181375604</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>1.38845568364537</v>
+        <v>0.216357</v>
       </c>
       <c r="H8">
-        <v>1.38845568364537</v>
+        <v>0.649071</v>
       </c>
       <c r="I8">
-        <v>0.3506788152624784</v>
+        <v>0.02938315833856913</v>
       </c>
       <c r="J8">
-        <v>0.3506788152624784</v>
+        <v>0.03803806027113072</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>8.28312771147252</v>
+        <v>8.2840475</v>
       </c>
       <c r="N8">
-        <v>8.28312771147252</v>
+        <v>16.568095</v>
       </c>
       <c r="O8">
-        <v>0.1651797650911165</v>
+        <v>0.162064909128062</v>
       </c>
       <c r="P8">
-        <v>0.1651797650911165</v>
+        <v>0.1267883207199013</v>
       </c>
       <c r="Q8">
-        <v>11.50075574935449</v>
+        <v>1.7923116649575</v>
       </c>
       <c r="R8">
-        <v>11.50075574935449</v>
+        <v>10.753869989745</v>
       </c>
       <c r="S8">
-        <v>0.05792504432748723</v>
+        <v>0.004761978886035662</v>
       </c>
       <c r="T8">
-        <v>0.05792504432748723</v>
+        <v>0.004822781785219057</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>1.38845568364537</v>
+        <v>0.216357</v>
       </c>
       <c r="H9">
-        <v>1.38845568364537</v>
+        <v>0.649071</v>
       </c>
       <c r="I9">
-        <v>0.3506788152624784</v>
+        <v>0.02938315833856913</v>
       </c>
       <c r="J9">
-        <v>0.3506788152624784</v>
+        <v>0.03803806027113072</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>10.0884079620058</v>
+        <v>10.55762366666667</v>
       </c>
       <c r="N9">
-        <v>10.0884079620058</v>
+        <v>31.672871</v>
       </c>
       <c r="O9">
-        <v>0.2011801478081069</v>
+        <v>0.2065440016062932</v>
       </c>
       <c r="P9">
-        <v>0.2011801478081069</v>
+        <v>0.2423785067907964</v>
       </c>
       <c r="Q9">
-        <v>14.00730737378016</v>
+        <v>2.284215783649</v>
       </c>
       <c r="R9">
-        <v>14.00730737378016</v>
+        <v>20.557942052841</v>
       </c>
       <c r="S9">
-        <v>0.07054961588767721</v>
+        <v>0.006068915103079392</v>
       </c>
       <c r="T9">
-        <v>0.07054961588767721</v>
+        <v>0.009219608249734982</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>1.38845568364537</v>
+        <v>0.216357</v>
       </c>
       <c r="H10">
-        <v>1.38845568364537</v>
+        <v>0.649071</v>
       </c>
       <c r="I10">
-        <v>0.3506788152624784</v>
+        <v>0.02938315833856913</v>
       </c>
       <c r="J10">
-        <v>0.3506788152624784</v>
+        <v>0.03803806027113072</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.86060316207513</v>
+        <v>5.931556333333333</v>
       </c>
       <c r="N10">
-        <v>5.86060316207513</v>
+        <v>17.794669</v>
       </c>
       <c r="O10">
-        <v>0.1168704730053873</v>
+        <v>0.1160419635630586</v>
       </c>
       <c r="P10">
-        <v>0.1168704730053873</v>
+        <v>0.13617475034254</v>
       </c>
       <c r="Q10">
-        <v>8.137187769973243</v>
+        <v>1.283333733611</v>
       </c>
       <c r="R10">
-        <v>8.137187769973243</v>
+        <v>11.550003602499</v>
       </c>
       <c r="S10">
-        <v>0.04098399901269469</v>
+        <v>0.003409679389291822</v>
       </c>
       <c r="T10">
-        <v>0.04098399901269469</v>
+        <v>0.005179823360935715</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>22</v>
       </c>
-      <c r="C11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>1.38845568364537</v>
+        <v>0.216357</v>
       </c>
       <c r="H11">
-        <v>1.38845568364537</v>
+        <v>0.649071</v>
       </c>
       <c r="I11">
-        <v>0.3506788152624784</v>
+        <v>0.02938315833856913</v>
       </c>
       <c r="J11">
-        <v>0.3506788152624784</v>
+        <v>0.03803806027113072</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>5.42173999120912</v>
+        <v>5.460941333333333</v>
       </c>
       <c r="N11">
-        <v>5.42173999120912</v>
+        <v>16.382824</v>
       </c>
       <c r="O11">
-        <v>0.1081187891009624</v>
+        <v>0.1068350900861377</v>
       </c>
       <c r="P11">
-        <v>0.1081187891009624</v>
+        <v>0.1253705235037399</v>
       </c>
       <c r="Q11">
-        <v>7.527845706041701</v>
+        <v>1.181512884056</v>
       </c>
       <c r="R11">
-        <v>7.527845706041701</v>
+        <v>10.633615956504</v>
       </c>
       <c r="S11">
-        <v>0.03791496886953925</v>
+        <v>0.003139152368116283</v>
       </c>
       <c r="T11">
-        <v>0.03791496886953925</v>
+        <v>0.00476885152925847</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
         <v>23</v>
       </c>
-      <c r="D12" t="s">
-        <v>21</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>1.38845568364537</v>
+        <v>0.216357</v>
       </c>
       <c r="H12">
-        <v>1.38845568364537</v>
+        <v>0.649071</v>
       </c>
       <c r="I12">
-        <v>0.3506788152624784</v>
+        <v>0.02938315833856913</v>
       </c>
       <c r="J12">
-        <v>0.3506788152624784</v>
+        <v>0.03803806027113072</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>6.14538998022879</v>
+        <v>6.493894666666667</v>
       </c>
       <c r="N12">
-        <v>6.14538998022879</v>
+        <v>19.481684</v>
       </c>
       <c r="O12">
-        <v>0.1225496103267296</v>
+        <v>0.1270432658722128</v>
       </c>
       <c r="P12">
-        <v>0.1225496103267296</v>
+        <v>0.1490847317785038</v>
       </c>
       <c r="Q12">
-        <v>8.532601646265972</v>
+        <v>1.404999568396</v>
       </c>
       <c r="R12">
-        <v>8.532601646265972</v>
+        <v>12.644996115564</v>
       </c>
       <c r="S12">
-        <v>0.04297555216025592</v>
+        <v>0.003732932396972164</v>
       </c>
       <c r="T12">
-        <v>0.04297555216025592</v>
+        <v>0.005670894012896084</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,1177 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.216357</v>
+      </c>
+      <c r="H13">
+        <v>0.649071</v>
+      </c>
+      <c r="I13">
+        <v>0.02938315833856913</v>
+      </c>
+      <c r="J13">
+        <v>0.03803806027113072</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>14.3875515</v>
+      </c>
+      <c r="N13">
+        <v>28.775103</v>
+      </c>
+      <c r="O13">
+        <v>0.2814707697442357</v>
+      </c>
+      <c r="P13">
+        <v>0.2202031668645185</v>
+      </c>
+      <c r="Q13">
+        <v>3.1128474798855</v>
+      </c>
+      <c r="R13">
+        <v>18.677084879313</v>
+      </c>
+      <c r="S13">
+        <v>0.008270500195073813</v>
+      </c>
+      <c r="T13">
+        <v>0.008376101333086408</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
         <v>22</v>
       </c>
-      <c r="C13" t="s">
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.05725033333333333</v>
+      </c>
+      <c r="H14">
+        <v>0.171751</v>
+      </c>
+      <c r="I14">
+        <v>0.007775092136002975</v>
+      </c>
+      <c r="J14">
+        <v>0.01006527003922063</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>8.2840475</v>
+      </c>
+      <c r="N14">
+        <v>16.568095</v>
+      </c>
+      <c r="O14">
+        <v>0.162064909128062</v>
+      </c>
+      <c r="P14">
+        <v>0.1267883207199013</v>
+      </c>
+      <c r="Q14">
+        <v>0.4742644807241666</v>
+      </c>
+      <c r="R14">
+        <v>2.845586884345</v>
+      </c>
+      <c r="S14">
+        <v>0.001260069600483631</v>
+      </c>
+      <c r="T14">
+        <v>0.001276158685865118</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.05725033333333333</v>
+      </c>
+      <c r="H15">
+        <v>0.171751</v>
+      </c>
+      <c r="I15">
+        <v>0.007775092136002975</v>
+      </c>
+      <c r="J15">
+        <v>0.01006527003922063</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>10.55762366666667</v>
+      </c>
+      <c r="N15">
+        <v>31.672871</v>
+      </c>
+      <c r="O15">
+        <v>0.2065440016062932</v>
+      </c>
+      <c r="P15">
+        <v>0.2423785067907964</v>
+      </c>
+      <c r="Q15">
+        <v>0.6044274741245554</v>
+      </c>
+      <c r="R15">
+        <v>5.439847267120999</v>
+      </c>
+      <c r="S15">
+        <v>0.001605898642627676</v>
+      </c>
+      <c r="T15">
+        <v>0.002439605122552437</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.05725033333333333</v>
+      </c>
+      <c r="H16">
+        <v>0.171751</v>
+      </c>
+      <c r="I16">
+        <v>0.007775092136002975</v>
+      </c>
+      <c r="J16">
+        <v>0.01006527003922063</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>5.931556333333333</v>
+      </c>
+      <c r="N16">
+        <v>17.794669</v>
+      </c>
+      <c r="O16">
+        <v>0.1160419635630586</v>
+      </c>
+      <c r="P16">
+        <v>0.13617475034254</v>
+      </c>
+      <c r="Q16">
+        <v>0.3395835772687777</v>
+      </c>
+      <c r="R16">
+        <v>3.056252195418999</v>
+      </c>
+      <c r="S16">
+        <v>0.0009022369583454809</v>
+      </c>
+      <c r="T16">
+        <v>0.001370635634721117</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.05725033333333333</v>
+      </c>
+      <c r="H17">
+        <v>0.171751</v>
+      </c>
+      <c r="I17">
+        <v>0.007775092136002975</v>
+      </c>
+      <c r="J17">
+        <v>0.01006527003922063</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>5.460941333333333</v>
+      </c>
+      <c r="N17">
+        <v>16.382824</v>
+      </c>
+      <c r="O17">
+        <v>0.1068350900861377</v>
+      </c>
+      <c r="P17">
+        <v>0.1253705235037399</v>
+      </c>
+      <c r="Q17">
+        <v>0.3126407116471111</v>
+      </c>
+      <c r="R17">
+        <v>2.813766404824</v>
+      </c>
+      <c r="S17">
+        <v>0.000830652668777899</v>
+      </c>
+      <c r="T17">
+        <v>0.001261888174023599</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
         <v>23</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.05725033333333333</v>
+      </c>
+      <c r="H18">
+        <v>0.171751</v>
+      </c>
+      <c r="I18">
+        <v>0.007775092136002975</v>
+      </c>
+      <c r="J18">
+        <v>0.01006527003922063</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>6.493894666666667</v>
+      </c>
+      <c r="N18">
+        <v>19.481684</v>
+      </c>
+      <c r="O18">
+        <v>0.1270432658722128</v>
+      </c>
+      <c r="P18">
+        <v>0.1490847317785038</v>
+      </c>
+      <c r="Q18">
+        <v>0.3717776342982222</v>
+      </c>
+      <c r="R18">
+        <v>3.345998708684</v>
+      </c>
+      <c r="S18">
+        <v>0.0009877730974151766</v>
+      </c>
+      <c r="T18">
+        <v>0.001500578084075418</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.05725033333333333</v>
+      </c>
+      <c r="H19">
+        <v>0.171751</v>
+      </c>
+      <c r="I19">
+        <v>0.007775092136002975</v>
+      </c>
+      <c r="J19">
+        <v>0.01006527003922063</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>14.3875515</v>
+      </c>
+      <c r="N19">
+        <v>28.775103</v>
+      </c>
+      <c r="O19">
+        <v>0.2814707697442357</v>
+      </c>
+      <c r="P19">
+        <v>0.2202031668645185</v>
+      </c>
+      <c r="Q19">
+        <v>0.8236921192254999</v>
+      </c>
+      <c r="R19">
+        <v>4.942152715353</v>
+      </c>
+      <c r="S19">
+        <v>0.002188461168353111</v>
+      </c>
+      <c r="T19">
+        <v>0.002216404337982938</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>2.063518333333333</v>
+      </c>
+      <c r="H20">
+        <v>6.190555</v>
+      </c>
+      <c r="I20">
+        <v>0.2802436987149647</v>
+      </c>
+      <c r="J20">
+        <v>0.3627903637687551</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>8.2840475</v>
+      </c>
+      <c r="N20">
+        <v>16.568095</v>
+      </c>
+      <c r="O20">
+        <v>0.162064909128062</v>
+      </c>
+      <c r="P20">
+        <v>0.1267883207199013</v>
+      </c>
+      <c r="Q20">
+        <v>17.09428389045416</v>
+      </c>
+      <c r="R20">
+        <v>102.565703342725</v>
+      </c>
+      <c r="S20">
+        <v>0.04541766956595272</v>
+      </c>
+      <c r="T20">
+        <v>0.04599758099560258</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>2.063518333333333</v>
+      </c>
+      <c r="H21">
+        <v>6.190555</v>
+      </c>
+      <c r="I21">
+        <v>0.2802436987149647</v>
+      </c>
+      <c r="J21">
+        <v>0.3627903637687551</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>10.55762366666667</v>
+      </c>
+      <c r="N21">
+        <v>31.672871</v>
+      </c>
+      <c r="O21">
+        <v>0.2065440016062932</v>
+      </c>
+      <c r="P21">
+        <v>0.2423785067907964</v>
+      </c>
+      <c r="Q21">
+        <v>21.78584999260055</v>
+      </c>
+      <c r="R21">
+        <v>196.072649933405</v>
+      </c>
+      <c r="S21">
+        <v>0.05788265495753723</v>
+      </c>
+      <c r="T21">
+        <v>0.08793258664836073</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
         <v>27</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>1.38845568364537</v>
-      </c>
-      <c r="H13">
-        <v>1.38845568364537</v>
-      </c>
-      <c r="I13">
-        <v>0.3506788152624784</v>
-      </c>
-      <c r="J13">
-        <v>0.3506788152624784</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>14.3468717139337</v>
-      </c>
-      <c r="N13">
-        <v>14.3468717139337</v>
-      </c>
-      <c r="O13">
-        <v>0.2861012146676974</v>
-      </c>
-      <c r="P13">
-        <v>0.2861012146676974</v>
-      </c>
-      <c r="Q13">
-        <v>19.91999557374224</v>
-      </c>
-      <c r="R13">
-        <v>19.91999557374224</v>
-      </c>
-      <c r="S13">
-        <v>0.1003296350048241</v>
-      </c>
-      <c r="T13">
-        <v>0.1003296350048241</v>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>2.063518333333333</v>
+      </c>
+      <c r="H22">
+        <v>6.190555</v>
+      </c>
+      <c r="I22">
+        <v>0.2802436987149647</v>
+      </c>
+      <c r="J22">
+        <v>0.3627903637687551</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>5.931556333333333</v>
+      </c>
+      <c r="N22">
+        <v>17.794669</v>
+      </c>
+      <c r="O22">
+        <v>0.1160419635630586</v>
+      </c>
+      <c r="P22">
+        <v>0.13617475034254</v>
+      </c>
+      <c r="Q22">
+        <v>12.23987523903278</v>
+      </c>
+      <c r="R22">
+        <v>110.158877151295</v>
+      </c>
+      <c r="S22">
+        <v>0.03252002907505871</v>
+      </c>
+      <c r="T22">
+        <v>0.04940288721288949</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>2.063518333333333</v>
+      </c>
+      <c r="H23">
+        <v>6.190555</v>
+      </c>
+      <c r="I23">
+        <v>0.2802436987149647</v>
+      </c>
+      <c r="J23">
+        <v>0.3627903637687551</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>5.460941333333333</v>
+      </c>
+      <c r="N23">
+        <v>16.382824</v>
+      </c>
+      <c r="O23">
+        <v>0.1068350900861377</v>
+      </c>
+      <c r="P23">
+        <v>0.1253705235037399</v>
+      </c>
+      <c r="Q23">
+        <v>11.26875255859111</v>
+      </c>
+      <c r="R23">
+        <v>101.41877302732</v>
+      </c>
+      <c r="S23">
+        <v>0.0299398607982857</v>
+      </c>
+      <c r="T23">
+        <v>0.04548321782780107</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>2.063518333333333</v>
+      </c>
+      <c r="H24">
+        <v>6.190555</v>
+      </c>
+      <c r="I24">
+        <v>0.2802436987149647</v>
+      </c>
+      <c r="J24">
+        <v>0.3627903637687551</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>6.493894666666667</v>
+      </c>
+      <c r="N24">
+        <v>19.481684</v>
+      </c>
+      <c r="O24">
+        <v>0.1270432658722128</v>
+      </c>
+      <c r="P24">
+        <v>0.1490847317785038</v>
+      </c>
+      <c r="Q24">
+        <v>13.40027069940222</v>
+      </c>
+      <c r="R24">
+        <v>120.60243629462</v>
+      </c>
+      <c r="S24">
+        <v>0.03560307472485755</v>
+      </c>
+      <c r="T24">
+        <v>0.05408650407429068</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>2.063518333333333</v>
+      </c>
+      <c r="H25">
+        <v>6.190555</v>
+      </c>
+      <c r="I25">
+        <v>0.2802436987149647</v>
+      </c>
+      <c r="J25">
+        <v>0.3627903637687551</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>14.3875515</v>
+      </c>
+      <c r="N25">
+        <v>28.775103</v>
+      </c>
+      <c r="O25">
+        <v>0.2814707697442357</v>
+      </c>
+      <c r="P25">
+        <v>0.2202031668645185</v>
+      </c>
+      <c r="Q25">
+        <v>29.6889762920275</v>
+      </c>
+      <c r="R25">
+        <v>178.133857752165</v>
+      </c>
+      <c r="S25">
+        <v>0.07888040959327279</v>
+      </c>
+      <c r="T25">
+        <v>0.07988758700981054</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>0.5</v>
+      </c>
+      <c r="G26">
+        <v>2.1746685</v>
+      </c>
+      <c r="H26">
+        <v>4.349337</v>
+      </c>
+      <c r="I26">
+        <v>0.2953388560083502</v>
+      </c>
+      <c r="J26">
+        <v>0.2548878981582275</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>8.2840475</v>
+      </c>
+      <c r="N26">
+        <v>16.568095</v>
+      </c>
+      <c r="O26">
+        <v>0.162064909128062</v>
+      </c>
+      <c r="P26">
+        <v>0.1267883207199013</v>
+      </c>
+      <c r="Q26">
+        <v>18.01505715075375</v>
+      </c>
+      <c r="R26">
+        <v>72.06022860301501</v>
+      </c>
+      <c r="S26">
+        <v>0.04786406486097906</v>
+      </c>
+      <c r="T26">
+        <v>0.03231680857930688</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>0.5</v>
+      </c>
+      <c r="G27">
+        <v>2.1746685</v>
+      </c>
+      <c r="H27">
+        <v>4.349337</v>
+      </c>
+      <c r="I27">
+        <v>0.2953388560083502</v>
+      </c>
+      <c r="J27">
+        <v>0.2548878981582275</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>10.55762366666667</v>
+      </c>
+      <c r="N27">
+        <v>31.672871</v>
+      </c>
+      <c r="O27">
+        <v>0.2065440016062932</v>
+      </c>
+      <c r="P27">
+        <v>0.2423785067907964</v>
+      </c>
+      <c r="Q27">
+        <v>22.9593316227545</v>
+      </c>
+      <c r="R27">
+        <v>137.755989736527</v>
+      </c>
+      <c r="S27">
+        <v>0.0610004691497895</v>
+      </c>
+      <c r="T27">
+        <v>0.06177934815463577</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
+        <v>27</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>0.5</v>
+      </c>
+      <c r="G28">
+        <v>2.1746685</v>
+      </c>
+      <c r="H28">
+        <v>4.349337</v>
+      </c>
+      <c r="I28">
+        <v>0.2953388560083502</v>
+      </c>
+      <c r="J28">
+        <v>0.2548878981582275</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>5.931556333333333</v>
+      </c>
+      <c r="N28">
+        <v>17.794669</v>
+      </c>
+      <c r="O28">
+        <v>0.1160419635630586</v>
+      </c>
+      <c r="P28">
+        <v>0.13617475034254</v>
+      </c>
+      <c r="Q28">
+        <v>12.8991687140755</v>
+      </c>
+      <c r="R28">
+        <v>77.395012284453</v>
+      </c>
+      <c r="S28">
+        <v>0.0342717007676764</v>
+      </c>
+      <c r="T28">
+        <v>0.03470929589703138</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>0.5</v>
+      </c>
+      <c r="G29">
+        <v>2.1746685</v>
+      </c>
+      <c r="H29">
+        <v>4.349337</v>
+      </c>
+      <c r="I29">
+        <v>0.2953388560083502</v>
+      </c>
+      <c r="J29">
+        <v>0.2548878981582275</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>5.460941333333333</v>
+      </c>
+      <c r="N29">
+        <v>16.382824</v>
+      </c>
+      <c r="O29">
+        <v>0.1068350900861377</v>
+      </c>
+      <c r="P29">
+        <v>0.1253705235037399</v>
+      </c>
+      <c r="Q29">
+        <v>11.875737097948</v>
+      </c>
+      <c r="R29">
+        <v>71.254422587688</v>
+      </c>
+      <c r="S29">
+        <v>0.03155255328758896</v>
+      </c>
+      <c r="T29">
+        <v>0.03195542922686493</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>0.5</v>
+      </c>
+      <c r="G30">
+        <v>2.1746685</v>
+      </c>
+      <c r="H30">
+        <v>4.349337</v>
+      </c>
+      <c r="I30">
+        <v>0.2953388560083502</v>
+      </c>
+      <c r="J30">
+        <v>0.2548878981582275</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>6.493894666666667</v>
+      </c>
+      <c r="N30">
+        <v>19.481684</v>
+      </c>
+      <c r="O30">
+        <v>0.1270432658722128</v>
+      </c>
+      <c r="P30">
+        <v>0.1490847317785038</v>
+      </c>
+      <c r="Q30">
+        <v>14.122068173918</v>
+      </c>
+      <c r="R30">
+        <v>84.73240904350801</v>
+      </c>
+      <c r="S30">
+        <v>0.037520812806264</v>
+      </c>
+      <c r="T30">
+        <v>0.03799989393050594</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>0.5</v>
+      </c>
+      <c r="G31">
+        <v>2.1746685</v>
+      </c>
+      <c r="H31">
+        <v>4.349337</v>
+      </c>
+      <c r="I31">
+        <v>0.2953388560083502</v>
+      </c>
+      <c r="J31">
+        <v>0.2548878981582275</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>14.3875515</v>
+      </c>
+      <c r="N31">
+        <v>28.775103</v>
+      </c>
+      <c r="O31">
+        <v>0.2814707697442357</v>
+      </c>
+      <c r="P31">
+        <v>0.2202031668645185</v>
+      </c>
+      <c r="Q31">
+        <v>31.28815503917775</v>
+      </c>
+      <c r="R31">
+        <v>125.152620156711</v>
+      </c>
+      <c r="S31">
+        <v>0.08312925513605235</v>
+      </c>
+      <c r="T31">
+        <v>0.05612712236988256</v>
       </c>
     </row>
   </sheetData>
